--- a/Excel/Delivery/OTIF/OE.xlsx
+++ b/Excel/Delivery/OTIF/OE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Mahle-dashboard\Excel\Delivery\OTIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.52.95.143\Mahle-dashboard\Excel\Delivery\OTIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFADAB0-5C7F-49A9-B346-48A674C9170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="8235"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -85,15 +86,27 @@
   <si>
     <t>2023-12</t>
   </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,15 +116,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,26 +167,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,17 +467,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C345"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G463" sqref="G463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2229,21 +2271,1185 @@
         <v>20</v>
       </c>
     </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="4">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="4">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="4">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="4">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="4">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="4">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="4">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="4">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="4">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="4">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="4">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="4">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="4">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="4">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="4">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="4">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="4">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="4">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="4">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="4">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="4">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="4">
+        <v>45293</v>
+      </c>
+      <c r="B368">
+        <v>100</v>
+      </c>
+      <c r="C368">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="4">
+        <v>45294</v>
+      </c>
+      <c r="B369">
+        <v>100</v>
+      </c>
+      <c r="C369">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="4">
+        <v>45295</v>
+      </c>
+      <c r="B370">
+        <v>100</v>
+      </c>
+      <c r="C370">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="4">
+        <v>45296</v>
+      </c>
+      <c r="B371">
+        <v>100</v>
+      </c>
+      <c r="C371">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="4">
+        <v>45297</v>
+      </c>
+      <c r="B372">
+        <v>100</v>
+      </c>
+      <c r="C372">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="4">
+        <v>45298</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="4">
+        <v>45299</v>
+      </c>
+      <c r="B374">
+        <v>100</v>
+      </c>
+      <c r="C374">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="4">
+        <v>45300</v>
+      </c>
+      <c r="B375">
+        <v>100</v>
+      </c>
+      <c r="C375">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="4">
+        <v>45301</v>
+      </c>
+      <c r="B376">
+        <v>100</v>
+      </c>
+      <c r="C376">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="4">
+        <v>45302</v>
+      </c>
+      <c r="B377">
+        <v>100</v>
+      </c>
+      <c r="C377">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="4">
+        <v>45303</v>
+      </c>
+      <c r="B378">
+        <v>100</v>
+      </c>
+      <c r="C378">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="4">
+        <v>45304</v>
+      </c>
+      <c r="B379">
+        <v>100</v>
+      </c>
+      <c r="C379">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="4">
+        <v>45305</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="4">
+        <v>45306</v>
+      </c>
+      <c r="B381">
+        <v>100</v>
+      </c>
+      <c r="C381">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="4">
+        <v>45307</v>
+      </c>
+      <c r="B382">
+        <v>100</v>
+      </c>
+      <c r="C382">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="4">
+        <v>45308</v>
+      </c>
+      <c r="B383">
+        <v>100</v>
+      </c>
+      <c r="C383">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="4">
+        <v>45309</v>
+      </c>
+      <c r="B384">
+        <v>100</v>
+      </c>
+      <c r="C384">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="4">
+        <v>45310</v>
+      </c>
+      <c r="B385">
+        <v>100</v>
+      </c>
+      <c r="C385">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="4">
+        <v>45311</v>
+      </c>
+      <c r="B386">
+        <v>100</v>
+      </c>
+      <c r="C386">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="4">
+        <v>45312</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B388">
+        <v>100</v>
+      </c>
+      <c r="C388">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B389">
+        <v>100</v>
+      </c>
+      <c r="C389">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="4">
+        <v>45315</v>
+      </c>
+      <c r="B390">
+        <v>100</v>
+      </c>
+      <c r="C390">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="4">
+        <v>45316</v>
+      </c>
+      <c r="B391">
+        <v>100</v>
+      </c>
+      <c r="C391">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="4">
+        <v>45317</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="4">
+        <v>45318</v>
+      </c>
+      <c r="B393">
+        <v>100</v>
+      </c>
+      <c r="C393">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="4">
+        <v>45319</v>
+      </c>
+      <c r="B394">
+        <v>100</v>
+      </c>
+      <c r="C394">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="4">
+        <v>45320</v>
+      </c>
+      <c r="B395">
+        <v>100</v>
+      </c>
+      <c r="C395">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B396">
+        <v>100</v>
+      </c>
+      <c r="C396">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B397">
+        <v>100</v>
+      </c>
+      <c r="C397">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B398">
+        <v>100</v>
+      </c>
+      <c r="C398">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="4">
+        <v>45324</v>
+      </c>
+      <c r="B399">
+        <v>100</v>
+      </c>
+      <c r="C399">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="4">
+        <v>45325</v>
+      </c>
+      <c r="B400">
+        <v>100</v>
+      </c>
+      <c r="C400">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="4">
+        <v>45326</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="4">
+        <v>45327</v>
+      </c>
+      <c r="B402">
+        <v>100</v>
+      </c>
+      <c r="C402">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="4">
+        <v>45328</v>
+      </c>
+      <c r="B403">
+        <v>100</v>
+      </c>
+      <c r="C403">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B404">
+        <v>100</v>
+      </c>
+      <c r="C404">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="4">
+        <v>45330</v>
+      </c>
+      <c r="B405">
+        <v>100</v>
+      </c>
+      <c r="C405">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="4">
+        <v>45331</v>
+      </c>
+      <c r="B406">
+        <v>100</v>
+      </c>
+      <c r="C406">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="4">
+        <v>45332</v>
+      </c>
+      <c r="B407">
+        <v>100</v>
+      </c>
+      <c r="C407">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="4">
+        <v>45333</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="4">
+        <v>45334</v>
+      </c>
+      <c r="B409">
+        <v>100</v>
+      </c>
+      <c r="C409">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="4">
+        <v>45335</v>
+      </c>
+      <c r="B410">
+        <v>100</v>
+      </c>
+      <c r="C410">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="4">
+        <v>45336</v>
+      </c>
+      <c r="B411">
+        <v>100</v>
+      </c>
+      <c r="C411">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="4">
+        <v>45337</v>
+      </c>
+      <c r="B412">
+        <v>100</v>
+      </c>
+      <c r="C412">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="4">
+        <v>45338</v>
+      </c>
+      <c r="B413">
+        <v>100</v>
+      </c>
+      <c r="C413">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="4">
+        <v>45339</v>
+      </c>
+      <c r="B414">
+        <v>100</v>
+      </c>
+      <c r="C414">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="4">
+        <v>45340</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="4">
+        <v>45341</v>
+      </c>
+      <c r="B416">
+        <v>100</v>
+      </c>
+      <c r="C416">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="4">
+        <v>45342</v>
+      </c>
+      <c r="B417">
+        <v>100</v>
+      </c>
+      <c r="C417">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="4">
+        <v>45343</v>
+      </c>
+      <c r="B418">
+        <v>100</v>
+      </c>
+      <c r="C418">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="4">
+        <v>45344</v>
+      </c>
+      <c r="B419">
+        <v>100</v>
+      </c>
+      <c r="C419">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="4">
+        <v>45345</v>
+      </c>
+      <c r="B420">
+        <v>100</v>
+      </c>
+      <c r="C420">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="4">
+        <v>45346</v>
+      </c>
+      <c r="B421">
+        <v>100</v>
+      </c>
+      <c r="C421">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="4">
+        <v>45347</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="4">
+        <v>45348</v>
+      </c>
+      <c r="B423">
+        <v>100</v>
+      </c>
+      <c r="C423">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="4">
+        <v>45349</v>
+      </c>
+      <c r="B424">
+        <v>100</v>
+      </c>
+      <c r="C424">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="4">
+        <v>45350</v>
+      </c>
+      <c r="B425">
+        <v>100</v>
+      </c>
+      <c r="C425">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="4">
+        <v>45351</v>
+      </c>
+      <c r="B426">
+        <v>100</v>
+      </c>
+      <c r="C426">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B427">
+        <v>100</v>
+      </c>
+      <c r="C427">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B428">
+        <v>100</v>
+      </c>
+      <c r="C428">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="4">
+        <v>45354</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B430">
+        <v>100</v>
+      </c>
+      <c r="C430">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B431">
+        <v>100</v>
+      </c>
+      <c r="C431">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="4">
+        <v>45357</v>
+      </c>
+      <c r="B432">
+        <v>100</v>
+      </c>
+      <c r="C432">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B433">
+        <v>100</v>
+      </c>
+      <c r="C433">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="4">
+        <v>45359</v>
+      </c>
+      <c r="B434">
+        <v>100</v>
+      </c>
+      <c r="C434">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="4">
+        <v>45360</v>
+      </c>
+      <c r="B435">
+        <v>100</v>
+      </c>
+      <c r="C435">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="4">
+        <v>45361</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="4">
+        <v>45362</v>
+      </c>
+      <c r="B437">
+        <v>100</v>
+      </c>
+      <c r="C437">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="4">
+        <v>45363</v>
+      </c>
+      <c r="B438">
+        <v>100</v>
+      </c>
+      <c r="C438">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="4">
+        <v>45364</v>
+      </c>
+      <c r="B439">
+        <v>100</v>
+      </c>
+      <c r="C439">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="4">
+        <v>45365</v>
+      </c>
+      <c r="B440">
+        <v>100</v>
+      </c>
+      <c r="C440">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="4">
+        <v>45366</v>
+      </c>
+      <c r="B441">
+        <v>100</v>
+      </c>
+      <c r="C441">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="4">
+        <v>45367</v>
+      </c>
+      <c r="B442">
+        <v>100</v>
+      </c>
+      <c r="C442">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="4">
+        <v>45368</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="4">
+        <v>45369</v>
+      </c>
+      <c r="B444">
+        <v>100</v>
+      </c>
+      <c r="C444">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="4">
+        <v>45370</v>
+      </c>
+      <c r="B445">
+        <v>100</v>
+      </c>
+      <c r="C445">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="4">
+        <v>45371</v>
+      </c>
+      <c r="B446">
+        <v>100</v>
+      </c>
+      <c r="C446">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B447">
+        <v>100</v>
+      </c>
+      <c r="C447">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B448">
+        <v>100</v>
+      </c>
+      <c r="C448">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="4">
+        <v>45374</v>
+      </c>
+      <c r="B449">
+        <v>100</v>
+      </c>
+      <c r="C449">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="4">
+        <v>45375</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="4">
+        <v>45376</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="4">
+        <v>45377</v>
+      </c>
+      <c r="B452">
+        <v>100</v>
+      </c>
+      <c r="C452">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="4">
+        <v>45378</v>
+      </c>
+      <c r="B453">
+        <v>100</v>
+      </c>
+      <c r="C453">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="4">
+        <v>45379</v>
+      </c>
+      <c r="B454">
+        <v>100</v>
+      </c>
+      <c r="C454">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="4">
+        <v>45380</v>
+      </c>
+      <c r="B455">
+        <v>100</v>
+      </c>
+      <c r="C455">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="4">
+        <v>45381</v>
+      </c>
+      <c r="B456">
+        <v>100</v>
+      </c>
+      <c r="C456">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="4">
+        <v>45382</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B458">
+        <v>100</v>
+      </c>
+      <c r="C458">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="4">
+        <v>45384</v>
+      </c>
+      <c r="B459">
+        <v>100</v>
+      </c>
+      <c r="C459">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="4">
+        <v>45385</v>
+      </c>
+      <c r="B460">
+        <v>100</v>
+      </c>
+      <c r="C460">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="4">
+        <v>45386</v>
+      </c>
+      <c r="B461">
+        <v>100</v>
+      </c>
+      <c r="C461">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="4">
+        <v>45387</v>
+      </c>
+      <c r="B462">
+        <v>100</v>
+      </c>
+      <c r="C462">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2656,8 +3862,12 @@
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
@@ -2666,8 +3876,12 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
@@ -2676,8 +3890,12 @@
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
@@ -2686,8 +3904,12 @@
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2696,8 +3918,12 @@
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
@@ -2707,10 +3933,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2721,10 +3947,10 @@
         <v>7</v>
       </c>
       <c r="C47" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2735,10 +3961,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="1">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D48" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2749,27 +3975,213 @@
         <v>9</v>
       </c>
       <c r="C49" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1">
-        <v>16</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1">
+        <v>100</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>100</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>100</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1">
+        <v>100</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>100</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2787,10 +4199,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2798,10 +4210,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2809,10 +4221,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2820,10 +4232,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2831,10 +4243,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2842,10 +4254,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2853,10 +4265,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2864,10 +4276,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2875,10 +4287,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2886,10 +4298,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,10 +4309,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2908,13 +4320,64 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>